--- a/backend/Expense_details.xlsx
+++ b/backend/Expense_details.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="expense" sheetId="1" r:id="rId1"/>
+    <sheet name="Expenses" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -64,9 +64,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,14 +397,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Source</v>
+        <v>Category</v>
       </c>
       <c r="B1" t="str">
         <v>Amount</v>
@@ -415,48 +414,74 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <v>sd</v>
+      </c>
       <c r="B2">
+        <v>500000</v>
+      </c>
+      <c r="C2" t="str">
+        <v>11/6/2025</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>bank</v>
+      </c>
+      <c r="B3">
         <v>10000</v>
       </c>
-      <c r="C2" s="1">
-        <v>45959.708333333336</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3">
+      <c r="C3" t="str">
+        <v>10/29/2025</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>sds</v>
+      </c>
+      <c r="B4">
         <v>5000</v>
       </c>
-      <c r="C3" s="1">
-        <v>45956.708333333336</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4">
+      <c r="C4" t="str">
+        <v>10/26/2025</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>home</v>
+      </c>
+      <c r="B5">
         <v>50000</v>
       </c>
-      <c r="C4" s="1">
-        <v>45951.708333333336</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5">
+      <c r="C5" t="str">
+        <v>10/21/2025</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>sdas</v>
+      </c>
+      <c r="B6">
         <v>5000</v>
       </c>
-      <c r="C5" s="1">
-        <v>45943.708333333336</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6">
+      <c r="C6" t="str">
+        <v>10/13/2025</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>asdsa</v>
+      </c>
+      <c r="B7">
         <v>444</v>
       </c>
-      <c r="C6" s="1">
-        <v>45935.708333333336</v>
+      <c r="C7" t="str">
+        <v>10/5/2025</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/Expense_details.xlsx
+++ b/backend/Expense_details.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -426,62 +426,73 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>bank</v>
+        <v>hf</v>
       </c>
       <c r="B3">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="C3" t="str">
-        <v>10/29/2025</v>
+        <v>11/5/2025</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>sds</v>
+        <v>bank</v>
       </c>
       <c r="B4">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="C4" t="str">
-        <v>10/26/2025</v>
+        <v>10/29/2025</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>home</v>
+        <v>sds</v>
       </c>
       <c r="B5">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="C5" t="str">
-        <v>10/21/2025</v>
+        <v>10/26/2025</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>sdas</v>
+        <v>home</v>
       </c>
       <c r="B6">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="C6" t="str">
-        <v>10/13/2025</v>
+        <v>10/21/2025</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
+        <v>sdas</v>
+      </c>
+      <c r="B7">
+        <v>5000</v>
+      </c>
+      <c r="C7" t="str">
+        <v>10/13/2025</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
         <v>asdsa</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>444</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C8" t="str">
         <v>10/5/2025</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C8"/>
   </ignoredErrors>
 </worksheet>
 </file>